--- a/datasets/dicionarios_dados/tomas_de_sangre_w8.Catalogo_revisado.xlsx
+++ b/datasets/dicionarios_dados/tomas_de_sangre_w8.Catalogo_revisado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\mvp_analise_exploratoria_2024-09\datasets\ensanut2023\catalogos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\mvp_analise_exploratoria_2024-09\datasets\dicionarios_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B50E9C7-7E9A-42F3-83D4-CF1C8A54CFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BF261B-B50B-4967-9B8B-B569FAC1313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicionário de Dados" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="420">
   <si>
     <t>Etiqueta</t>
   </si>
@@ -961,12 +961,6 @@
     <t>Metropolitano (100mil y + Hab)</t>
   </si>
   <si>
-    <t>Variável MVP</t>
-  </si>
-  <si>
-    <t>Variável Original</t>
-  </si>
-  <si>
     <t>Posição</t>
   </si>
   <si>
@@ -979,12 +973,6 @@
     <t>Tamanho</t>
   </si>
   <si>
-    <t>id_int</t>
-  </si>
-  <si>
-    <t>id_i</t>
-  </si>
-  <si>
     <t>data_ini_1</t>
   </si>
   <si>
@@ -1162,9 +1150,6 @@
     <t>idade</t>
   </si>
   <si>
-    <t>entidade</t>
-  </si>
-  <si>
     <t>selecionado_sangue_capilar</t>
   </si>
   <si>
@@ -1280,6 +1265,27 @@
   </si>
   <si>
     <t>Questionário Exames de Sangue</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id_base</t>
+  </si>
+  <si>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>desc_uf</t>
+  </si>
+  <si>
+    <t>desc_municipio</t>
+  </si>
+  <si>
+    <t>Atributo Revisado</t>
+  </si>
+  <si>
+    <t>Atributo Original</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1429,6 +1435,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1488,7 +1590,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1517,38 +1619,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1557,10 +1632,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1569,22 +1641,67 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1644,7 +1761,281 @@
     <cellStyle name="style1724386152271" xfId="54" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="style1724386152361" xfId="55" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="###0"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="###0"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1771,6 +2162,21 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DC4A52A-4A4E-4DB8-9141-301E024AFA87}" name="Tabela1" displayName="Tabela1" ref="A3:F125" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7" headerRowCellStyle="style1724386149283">
+  <autoFilter ref="A3:F125" xr:uid="{4DC4A52A-4A4E-4DB8-9141-301E024AFA87}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F0352434-9160-4BFE-A715-03C962D46089}" name="Atributo Revisado" dataDxfId="6" dataCellStyle="style1724386149517"/>
+    <tableColumn id="2" xr3:uid="{749D5409-E924-40A7-B0FD-75E20D0E6BE9}" name="Atributo Original" dataDxfId="5" dataCellStyle="style1724386149517"/>
+    <tableColumn id="3" xr3:uid="{457DA7E9-0A63-4327-8671-6019ADFDDC6A}" name="Posição" dataDxfId="4" dataCellStyle="style1724386150196"/>
+    <tableColumn id="4" xr3:uid="{BB6D636C-7437-4937-862D-9BC6023FE2E7}" name="Descrição/Questão" dataDxfId="3" dataCellStyle="style1724386150276"/>
+    <tableColumn id="5" xr3:uid="{59EB39A0-B698-41AF-8B10-4471722F82BA}" name="Nível de Medição" dataDxfId="2" dataCellStyle="style1724386150276"/>
+    <tableColumn id="6" xr3:uid="{D8368BAC-2647-4764-A028-F774FC97CABA}" name="Tamanho" dataDxfId="1" dataCellStyle="style1724386150358"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2093,2497 +2499,2497 @@
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.33203125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="23" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="15" customWidth="1"/>
-    <col min="7" max="16381" width="8.6640625" style="15"/>
-    <col min="16382" max="16384" width="11.5546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="23" style="10" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="10" customWidth="1"/>
+    <col min="7" max="16381" width="8.7109375" style="10"/>
+    <col min="16382" max="16384" width="11.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="D3" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="E3" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="F3" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" s="21" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="E4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="16">
         <v>2</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="28">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="26">
-        <v>3</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="16">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="26">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="16">
         <v>5</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="16">
         <v>6</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="B10" s="25" t="s">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="16">
         <v>7</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="16">
         <v>8</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="16">
         <v>9</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="26">
-        <v>10</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="16">
+        <v>10</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B14" s="25" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="16">
         <v>11</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="16">
         <v>12</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="16">
         <v>13</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="16">
         <v>14</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="16">
         <v>15</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="16">
         <v>16</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="B20" s="25" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="16">
         <v>17</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="16">
         <v>18</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="B22" s="25" t="s">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="16">
         <v>19</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="16">
         <v>20</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="16">
         <v>21</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="B25" s="25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="16">
         <v>22</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="B26" s="25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="16">
         <v>23</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="B27" s="25" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="16">
         <v>24</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="B28" s="25" t="s">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="16">
         <v>25</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="16">
         <v>26</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="16">
         <v>27</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="B31" s="25" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="16">
         <v>28</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="B32" s="25" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="16">
         <v>29</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="26">
+      <c r="C33" s="16">
         <v>30</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="28">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="16">
         <v>31</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="26">
+      <c r="C35" s="16">
         <v>32</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="28">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="B36" s="25" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="16">
         <v>33</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="B37" s="25" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="16">
         <v>34</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="B38" s="25" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="16">
         <v>35</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="B39" s="25" t="s">
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="16">
         <v>36</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="B40" s="25" t="s">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="16">
         <v>37</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="B41" s="25" t="s">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="16">
         <v>38</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="B42" s="25" t="s">
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="16">
         <v>39</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="B43" s="25" t="s">
+    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="16">
         <v>40</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="B44" s="25" t="s">
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="16">
         <v>41</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="B45" s="25" t="s">
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="16">
         <v>42</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="B46" s="25" t="s">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="16">
         <v>43</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="B47" s="25" t="s">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="16">
         <v>44</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="B48" s="25" t="s">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="16">
         <v>45</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="16">
         <v>46</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="B50" s="25" t="s">
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="16">
         <v>47</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="B51" s="25" t="s">
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="26">
+      <c r="C51" s="16">
         <v>48</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="B52" s="25" t="s">
+    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="16">
         <v>49</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F52" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="26">
+      <c r="C53" s="16">
         <v>50</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="B54" s="25" t="s">
+    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="26">
+      <c r="C54" s="16">
         <v>51</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="B55" s="25" t="s">
+    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="16">
         <v>52</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F55" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="B56" s="25" t="s">
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="26">
+      <c r="C56" s="16">
         <v>53</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="B57" s="25" t="s">
+    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="26">
+      <c r="C57" s="16">
         <v>54</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F57" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="B58" s="25" t="s">
+    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="16">
         <v>55</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F58" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="B59" s="25" t="s">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="26">
+      <c r="C59" s="16">
         <v>56</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="B60" s="25" t="s">
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="16">
         <v>57</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F60" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="B61" s="25" t="s">
+    <row r="61" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="16">
         <v>58</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F61" s="28">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="B62" s="25" t="s">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="26">
+      <c r="C62" s="16">
         <v>59</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F62" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="B63" s="25" t="s">
+    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="26">
+      <c r="C63" s="16">
         <v>60</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F63" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="B64" s="25" t="s">
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="26">
+      <c r="C64" s="16">
         <v>61</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="B65" s="25" t="s">
+    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="26">
+      <c r="C65" s="16">
         <v>62</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E65" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F65" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="B66" s="25" t="s">
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="26">
+      <c r="C66" s="16">
         <v>63</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F66" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="B67" s="25" t="s">
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="26">
+      <c r="C67" s="16">
         <v>64</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E67" s="27" t="s">
+      <c r="E67" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="B68" s="25" t="s">
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="26">
+      <c r="C68" s="16">
         <v>65</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="27" t="s">
+      <c r="E68" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F68" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="B69" s="25" t="s">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="26">
+      <c r="C69" s="16">
         <v>66</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E69" s="27" t="s">
+      <c r="E69" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F69" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="B70" s="25" t="s">
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="16">
         <v>67</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="E70" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="B71" s="25" t="s">
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="26">
+      <c r="C71" s="16">
         <v>68</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F71" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="B72" s="25" t="s">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="26">
+      <c r="C72" s="16">
         <v>69</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E72" s="27" t="s">
+      <c r="E72" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F72" s="28">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="B73" s="25" t="s">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="26">
+      <c r="C73" s="16">
         <v>70</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F73" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="25" t="s">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="26">
+      <c r="C74" s="16">
         <v>71</v>
       </c>
-      <c r="D74" s="27" t="s">
+      <c r="D74" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E74" s="27" t="s">
+      <c r="E74" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="B75" s="25" t="s">
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="B75" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="26">
+      <c r="C75" s="16">
         <v>72</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E75" s="27" t="s">
+      <c r="E75" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F75" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="25" t="s">
-        <v>413</v>
-      </c>
-      <c r="B76" s="25" t="s">
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="26">
+      <c r="C76" s="16">
         <v>73</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F76" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="B77" s="25" t="s">
+    <row r="77" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="26">
+      <c r="C77" s="16">
         <v>74</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="E77" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F77" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="B78" s="25" t="s">
+    <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="26">
+      <c r="C78" s="16">
         <v>75</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E78" s="27" t="s">
+      <c r="E78" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F78" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="25" t="s">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="16">
         <v>76</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E79" s="27" t="s">
+      <c r="E79" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F79" s="28">
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="B80" s="25" t="s">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B80" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="26">
+      <c r="C80" s="16">
         <v>77</v>
       </c>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E80" s="27" t="s">
+      <c r="E80" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="B81" s="25" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B81" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="26">
+      <c r="C81" s="16">
         <v>78</v>
       </c>
-      <c r="D81" s="27" t="s">
+      <c r="D81" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E81" s="27" t="s">
+      <c r="E81" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F81" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="B82" s="25" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="26">
+      <c r="C82" s="16">
         <v>79</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E82" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F82" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="B83" s="25" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B83" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="26">
+      <c r="C83" s="16">
         <v>80</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E83" s="27" t="s">
+      <c r="E83" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F83" s="28">
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="B84" s="25" t="s">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="B84" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="26">
+      <c r="C84" s="16">
         <v>81</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="27" t="s">
+      <c r="E84" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F84" s="28">
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="B85" s="25" t="s">
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="B85" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="26">
+      <c r="C85" s="16">
         <v>82</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E85" s="27" t="s">
+      <c r="E85" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F85" s="28">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="B86" s="25" t="s">
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B86" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="26">
+      <c r="C86" s="16">
         <v>83</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E86" s="27" t="s">
+      <c r="E86" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="B87" s="25" t="s">
+    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="26">
+      <c r="C87" s="16">
         <v>84</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E87" s="27" t="s">
+      <c r="E87" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F87" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="25" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="16">
+        <v>85</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="16">
+        <v>86</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="16">
+        <v>87</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="16">
+        <v>88</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="B88" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C88" s="26">
-        <v>85</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F88" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="25" t="s">
+      <c r="B92" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" s="16">
+        <v>89</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="B89" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C89" s="26">
-        <v>86</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="25" t="s">
+      <c r="B93" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="16">
+        <v>90</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="B90" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C90" s="26">
-        <v>87</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E90" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="25" t="s">
+      <c r="B94" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="16">
+        <v>91</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="B91" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C91" s="26">
-        <v>88</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="25" t="s">
+      <c r="B95" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" s="16">
+        <v>92</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="B92" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C92" s="26">
-        <v>89</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="E92" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F92" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="B93" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C93" s="26">
-        <v>90</v>
-      </c>
-      <c r="D93" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E93" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F93" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C94" s="26">
-        <v>91</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C95" s="26">
-        <v>92</v>
-      </c>
-      <c r="D95" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E95" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F95" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="26">
+      <c r="C96" s="16">
         <v>93</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E96" s="27" t="s">
+      <c r="E96" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F96" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="B97" s="25" t="s">
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B97" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C97" s="26">
+      <c r="C97" s="16">
         <v>94</v>
       </c>
-      <c r="D97" s="27" t="s">
+      <c r="D97" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E97" s="27" t="s">
+      <c r="E97" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F97" s="28">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="B98" s="25" t="s">
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="B98" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="26">
+      <c r="C98" s="16">
         <v>95</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E98" s="27" t="s">
+      <c r="E98" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F98" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="B99" s="25" t="s">
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="B99" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="26">
+      <c r="C99" s="16">
         <v>96</v>
       </c>
-      <c r="D99" s="27" t="s">
+      <c r="D99" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E99" s="27" t="s">
+      <c r="E99" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F99" s="28">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="25" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" s="16">
+        <v>97</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="16">
+        <v>98</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" s="16">
+        <v>99</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" s="16">
+        <v>100</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="16">
+        <v>101</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="B100" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C100" s="26">
-        <v>97</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="B101" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="26">
-        <v>98</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="25" t="s">
+      <c r="B105" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="16">
+        <v>102</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="B102" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="C102" s="26">
-        <v>99</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="B103" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C103" s="26">
-        <v>100</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="E103" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F103" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="B104" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" s="26">
-        <v>101</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F104" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C105" s="26">
-        <v>102</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F105" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="B106" s="25" t="s">
+      <c r="B106" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C106" s="26">
+      <c r="C106" s="16">
         <v>103</v>
       </c>
-      <c r="D106" s="27" t="s">
+      <c r="D106" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="E106" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F106" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="B107" s="25" t="s">
+    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B107" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C107" s="26">
+      <c r="C107" s="16">
         <v>104</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="E107" s="27" t="s">
+      <c r="E107" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F107" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="25" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="16">
+        <v>105</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="16">
+        <v>106</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="16">
+        <v>107</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="16">
+        <v>108</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="B108" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C108" s="26">
-        <v>105</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F108" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="B109" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C109" s="26">
-        <v>106</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="E109" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F109" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="B110" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C110" s="26">
-        <v>107</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F110" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C111" s="26">
-        <v>108</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="E111" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F111" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="25" t="s">
+      <c r="B112" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" s="16">
+        <v>109</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" s="16">
+        <v>110</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="B112" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C112" s="26">
-        <v>109</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E112" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F112" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="B113" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="C113" s="26">
-        <v>110</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F113" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C114" s="26">
+      <c r="C114" s="16">
         <v>111</v>
       </c>
-      <c r="D114" s="27" t="s">
+      <c r="D114" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E114" s="27" t="s">
+      <c r="E114" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F114" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="25" t="s">
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="25" t="s">
+      <c r="B115" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C115" s="26">
+      <c r="C115" s="16">
         <v>112</v>
       </c>
-      <c r="D115" s="27" t="s">
+      <c r="D115" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E115" s="27" t="s">
+      <c r="E115" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F115" s="28">
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="B116" s="25" t="s">
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B116" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C116" s="26">
+      <c r="C116" s="16">
         <v>113</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="D116" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E116" s="27" t="s">
+      <c r="E116" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F116" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="25" t="s">
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C117" s="26">
+      <c r="C117" s="16">
         <v>114</v>
       </c>
-      <c r="D117" s="27" t="s">
+      <c r="D117" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E117" s="27" t="s">
+      <c r="E117" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F117" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="25" t="s">
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="25" t="s">
+      <c r="B118" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C118" s="26">
+      <c r="C118" s="16">
         <v>115</v>
       </c>
-      <c r="D118" s="27" t="s">
+      <c r="D118" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="E118" s="27" t="s">
+      <c r="E118" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F118" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="25" t="s">
+    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C119" s="26">
+      <c r="C119" s="16">
         <v>116</v>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="E119" s="27" t="s">
+      <c r="E119" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F119" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="25" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="B120" s="25" t="s">
+      <c r="B120" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C120" s="26">
+      <c r="C120" s="16">
         <v>117</v>
       </c>
-      <c r="D120" s="27" t="s">
+      <c r="D120" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="E120" s="27" t="s">
+      <c r="E120" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F120" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="25" t="s">
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="B121" s="25" t="s">
+      <c r="B121" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C121" s="26">
+      <c r="C121" s="16">
         <v>118</v>
       </c>
-      <c r="D121" s="27" t="s">
+      <c r="D121" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="E121" s="27" t="s">
+      <c r="E121" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F121" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="25" t="s">
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="B122" s="25" t="s">
+      <c r="B122" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C122" s="26">
+      <c r="C122" s="16">
         <v>119</v>
       </c>
-      <c r="D122" s="27" t="s">
+      <c r="D122" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="E122" s="27" t="s">
+      <c r="E122" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F122" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="B123" s="25" t="s">
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B123" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C123" s="26">
+      <c r="C123" s="16">
         <v>120</v>
       </c>
-      <c r="D123" s="27" t="s">
+      <c r="D123" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E123" s="27" t="s">
+      <c r="E123" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="28">
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="B124" s="25" t="s">
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="B124" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C124" s="26">
+      <c r="C124" s="16">
         <v>121</v>
       </c>
-      <c r="D124" s="27" t="s">
+      <c r="D124" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E124" s="27" t="s">
+      <c r="E124" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F124" s="28">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="B125" s="29" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="B125" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="C125" s="30">
+      <c r="C125" s="36">
         <v>122</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="E125" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F125" s="32">
+      <c r="E125" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="38">
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="16"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4594,6 +5000,9 @@
   <customProperties>
     <customPr name="LastActive" r:id="rId2"/>
   </customProperties>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4605,29 +5014,29 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" spans="1:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:3" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4637,8 +5046,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
         <v>250</v>
       </c>
@@ -4646,7 +5055,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>91</v>
       </c>
@@ -4657,7 +5066,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>93</v>
       </c>
@@ -4668,8 +5077,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -4679,8 +5088,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
       <c r="B23" s="4" t="s">
         <v>250</v>
       </c>
@@ -4688,8 +5097,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
       <c r="B24" s="4" t="s">
         <v>255</v>
       </c>
@@ -4697,8 +5106,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>257</v>
       </c>
@@ -4706,8 +5115,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
       <c r="B26" s="4" t="s">
         <v>259</v>
       </c>
@@ -4715,8 +5124,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
       <c r="B27" s="4" t="s">
         <v>261</v>
       </c>
@@ -4724,7 +5133,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>101</v>
       </c>
@@ -4735,8 +5144,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>103</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -4746,8 +5155,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
       <c r="B30" s="4" t="s">
         <v>250</v>
       </c>
@@ -4755,8 +5164,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
       <c r="B31" s="4" t="s">
         <v>255</v>
       </c>
@@ -4764,8 +5173,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
       <c r="B32" s="4" t="s">
         <v>257</v>
       </c>
@@ -4773,8 +5182,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
       <c r="B33" s="4" t="s">
         <v>259</v>
       </c>
@@ -4782,8 +5191,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
       <c r="B34" s="4" t="s">
         <v>261</v>
       </c>
@@ -4791,8 +5200,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -4802,8 +5211,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
       <c r="B36" s="4" t="s">
         <v>250</v>
       </c>
@@ -4811,8 +5220,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>115</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -4822,8 +5231,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
       <c r="B38" s="7" t="s">
         <v>268</v>
       </c>
@@ -4831,8 +5240,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
       <c r="B39" s="7" t="s">
         <v>270</v>
       </c>
@@ -4840,8 +5249,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
       <c r="B40" s="7" t="s">
         <v>272</v>
       </c>
@@ -4849,8 +5258,8 @@
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
       <c r="B41" s="7" t="s">
         <v>274</v>
       </c>
@@ -4858,8 +5267,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
       <c r="B42" s="7" t="s">
         <v>276</v>
       </c>
@@ -4867,8 +5276,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
       <c r="B43" s="7" t="s">
         <v>278</v>
       </c>
@@ -4876,8 +5285,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
       <c r="B44" s="7" t="s">
         <v>280</v>
       </c>
@@ -4885,8 +5294,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
       <c r="B45" s="7" t="s">
         <v>282</v>
       </c>
@@ -4894,8 +5303,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
       <c r="B46" s="7" t="s">
         <v>284</v>
       </c>
@@ -4903,8 +5312,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
         <v>117</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -4914,8 +5323,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
       <c r="B48" s="7" t="s">
         <v>268</v>
       </c>
@@ -4923,8 +5332,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
       <c r="B49" s="7" t="s">
         <v>270</v>
       </c>
@@ -4932,8 +5341,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
       <c r="B50" s="7" t="s">
         <v>272</v>
       </c>
@@ -4941,8 +5350,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
       <c r="B51" s="7" t="s">
         <v>274</v>
       </c>
@@ -4950,8 +5359,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
       <c r="B52" s="7" t="s">
         <v>276</v>
       </c>
@@ -4959,8 +5368,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
       <c r="B53" s="7" t="s">
         <v>278</v>
       </c>
@@ -4968,7 +5377,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>119</v>
       </c>
@@ -4979,8 +5388,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
         <v>121</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4990,8 +5399,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
       <c r="B56" s="4" t="s">
         <v>250</v>
       </c>
@@ -4999,8 +5408,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
       <c r="B57" s="4" t="s">
         <v>255</v>
       </c>
@@ -5008,8 +5417,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
       <c r="B58" s="4" t="s">
         <v>257</v>
       </c>
@@ -5017,8 +5426,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -5028,8 +5437,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
       <c r="B60" s="4" t="s">
         <v>250</v>
       </c>
@@ -5037,8 +5446,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
       <c r="B61" s="4" t="s">
         <v>255</v>
       </c>
@@ -5046,8 +5455,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
+    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
         <v>127</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -5057,8 +5466,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
       <c r="B63" s="4" t="s">
         <v>250</v>
       </c>
@@ -5066,8 +5475,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
         <v>131</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -5077,8 +5486,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
       <c r="B65" s="4" t="s">
         <v>250</v>
       </c>
@@ -5086,7 +5495,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>143</v>
       </c>
@@ -5097,8 +5506,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -5108,8 +5517,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
       <c r="B68" s="4" t="s">
         <v>250</v>
       </c>
@@ -5117,8 +5526,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
       <c r="B69" s="4" t="s">
         <v>255</v>
       </c>
@@ -5126,8 +5535,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
       <c r="B70" s="4" t="s">
         <v>257</v>
       </c>
@@ -5135,8 +5544,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
       <c r="B71" s="4" t="s">
         <v>259</v>
       </c>
@@ -5144,8 +5553,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="11"/>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
       <c r="B72" s="4" t="s">
         <v>261</v>
       </c>
@@ -5153,8 +5562,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
+    <row r="73" spans="1:3" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
         <v>161</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -5164,8 +5573,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
+    <row r="74" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
       <c r="B74" s="4" t="s">
         <v>250</v>
       </c>
@@ -5173,8 +5582,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
+    <row r="75" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
       <c r="B75" s="4" t="s">
         <v>255</v>
       </c>
@@ -5182,8 +5591,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
+    <row r="76" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A76" s="23"/>
       <c r="B76" s="4" t="s">
         <v>257</v>
       </c>
@@ -5191,8 +5600,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="57" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
+    <row r="77" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A77" s="23"/>
       <c r="B77" s="4" t="s">
         <v>259</v>
       </c>
@@ -5200,8 +5609,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
+    <row r="78" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
       <c r="B78" s="4" t="s">
         <v>261</v>
       </c>
@@ -5209,8 +5618,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
+    <row r="79" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
       <c r="B79" s="4" t="s">
         <v>301</v>
       </c>
@@ -5218,8 +5627,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
       <c r="B80" s="4" t="s">
         <v>303</v>
       </c>
@@ -5227,8 +5636,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="26.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
+    <row r="81" spans="1:3" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="24" t="s">
         <v>221</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -5238,8 +5647,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="12"/>
+    <row r="82" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A82" s="24"/>
       <c r="B82" s="4" t="s">
         <v>307</v>
       </c>
@@ -5247,8 +5656,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A83" s="12"/>
+    <row r="83" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
       <c r="B83" s="8" t="s">
         <v>309</v>
       </c>
@@ -5258,21 +5667,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A46"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A61"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="A81:A83"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/datasets/dicionarios_dados/tomas_de_sangre_w8.Catalogo_revisado.xlsx
+++ b/datasets/dicionarios_dados/tomas_de_sangre_w8.Catalogo_revisado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\mvp_analise_exploratoria_2024-09\datasets\dicionarios_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BF261B-B50B-4967-9B8B-B569FAC1313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F037BDDC-8EE5-4706-842B-61E29F7157A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,9 +1620,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1672,12 +1669,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1701,6 +1692,15 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -2498,8 +2498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,2488 +2508,2488 @@
     <col min="2" max="2" width="22.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="23" style="10" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="10" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="10" customWidth="1"/>
     <col min="7" max="16381" width="8.7109375" style="10"/>
     <col min="16382" max="16384" width="11.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="37" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="27">
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="26">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>2</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="28">
+      <c r="E5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="27">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16">
-        <v>3</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="15">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="28">
+      <c r="E6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>4</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="28">
+      <c r="E7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="15">
         <v>5</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="28">
+      <c r="E8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="28">
+      <c r="E9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>7</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>8</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>9</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="28">
+      <c r="E12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="16">
-        <v>10</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="15">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="E13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>11</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>12</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="28">
+      <c r="E15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>13</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>14</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="28">
+      <c r="E18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="28">
+      <c r="E19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>17</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="28">
+      <c r="E20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>18</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="28">
+      <c r="E21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>19</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>20</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>21</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="28">
+      <c r="E24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>22</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="28">
+      <c r="E25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>23</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="28">
+      <c r="E26" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <v>24</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="28">
+      <c r="E27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>25</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>26</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>27</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="28">
+      <c r="E30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>28</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="28">
+      <c r="E31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>29</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="28">
+      <c r="E32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <v>30</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="28">
+      <c r="E33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="27">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>31</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="28">
+      <c r="E34" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>32</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="28">
+      <c r="E35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="27">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <v>33</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <v>34</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <v>35</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="28">
+      <c r="E38" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <v>36</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>37</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="15">
         <v>38</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="15">
         <v>39</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="15">
         <v>40</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="15">
         <v>41</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="15">
         <v>42</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="15">
         <v>43</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="15">
         <v>44</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="15">
         <v>45</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="15">
         <v>46</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="15">
         <v>47</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="15">
         <v>48</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="15">
         <v>49</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="28">
+      <c r="E52" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="15">
         <v>50</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="15">
         <v>51</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="15">
         <v>52</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="28">
+      <c r="E55" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="15">
         <v>53</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F56" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="15">
         <v>54</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="28">
+      <c r="E57" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="15">
         <v>55</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E58" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="28">
+      <c r="E58" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="15">
         <v>56</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="28">
+      <c r="F59" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="15">
         <v>57</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="28">
+      <c r="E60" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="15">
         <v>58</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="28">
+      <c r="E61" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="15">
         <v>59</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="28">
+      <c r="F62" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="15">
         <v>60</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="28">
+      <c r="F63" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="15">
         <v>61</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F64" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="15">
         <v>62</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="28">
+      <c r="F65" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="15">
         <v>63</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="28">
+      <c r="F66" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="15">
         <v>64</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="28">
+      <c r="F67" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="15">
         <v>65</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="28">
+      <c r="F68" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="15">
         <v>66</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="28">
+      <c r="F69" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="15">
         <v>67</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="28">
+      <c r="F70" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="15">
         <v>68</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E71" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="28">
+      <c r="E71" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="15">
         <v>69</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E72" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="28">
+      <c r="E72" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="15">
         <v>70</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F73" s="28">
+      <c r="E73" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="15">
         <v>71</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="28">
+      <c r="F74" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="15">
         <v>72</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="28">
+      <c r="F75" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="15">
         <v>73</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="28">
+      <c r="E76" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="15">
         <v>74</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E77" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F77" s="28">
+      <c r="E77" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
+      <c r="A78" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="15">
         <v>75</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E78" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" s="28">
+      <c r="E78" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C79" s="15">
         <v>76</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E79" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F79" s="28">
+      <c r="E79" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" s="27">
         <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="15">
         <v>77</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="28">
+      <c r="F80" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="15">
         <v>78</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E81" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="28">
+      <c r="E81" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="15">
         <v>79</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E82" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F82" s="28">
+      <c r="E82" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="26" t="s">
+      <c r="A83" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C83" s="15">
         <v>80</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="28">
+      <c r="F83" s="27">
         <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="15">
         <v>81</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F84" s="28">
+      <c r="E84" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="27">
         <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="15">
         <v>82</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E85" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F85" s="28">
+      <c r="E85" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" s="27">
         <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="16">
+      <c r="C86" s="15">
         <v>83</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E86" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="28">
+      <c r="F86" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="15">
         <v>84</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D87" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="28">
+      <c r="F87" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C88" s="15">
         <v>85</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E88" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F88" s="28">
+      <c r="E88" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="16">
+      <c r="C89" s="15">
         <v>86</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E89" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="28">
+      <c r="E89" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C90" s="15">
         <v>87</v>
       </c>
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E90" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" s="28">
+      <c r="E90" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C91" s="15">
         <v>88</v>
       </c>
-      <c r="D91" s="17" t="s">
+      <c r="D91" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E91" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="28">
+      <c r="E91" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C92" s="15">
         <v>89</v>
       </c>
-      <c r="D92" s="17" t="s">
+      <c r="D92" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E92" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F92" s="28">
+      <c r="E92" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C93" s="15">
         <v>90</v>
       </c>
-      <c r="D93" s="17" t="s">
+      <c r="D93" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E93" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F93" s="28">
+      <c r="E93" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C94" s="16">
+      <c r="C94" s="15">
         <v>91</v>
       </c>
-      <c r="D94" s="17" t="s">
+      <c r="D94" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E94" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="28">
+      <c r="E94" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="15">
         <v>92</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E95" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F95" s="28">
+      <c r="E95" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C96" s="15">
         <v>93</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E96" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F96" s="28">
+      <c r="E96" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C97" s="15">
         <v>94</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E97" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F97" s="28">
+      <c r="E97" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" s="27">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="16">
+      <c r="C98" s="15">
         <v>95</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E98" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F98" s="28">
+      <c r="E98" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C99" s="15">
         <v>96</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E99" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F99" s="28">
+      <c r="E99" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" s="27">
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C100" s="16">
+      <c r="C100" s="15">
         <v>97</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E100" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="28">
+      <c r="E100" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C101" s="16">
+      <c r="C101" s="15">
         <v>98</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D101" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E101" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="28">
+      <c r="E101" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="16">
+      <c r="C102" s="15">
         <v>99</v>
       </c>
-      <c r="D102" s="17" t="s">
+      <c r="D102" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="28">
+      <c r="E102" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C103" s="16">
+      <c r="C103" s="15">
         <v>100</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="D103" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E103" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F103" s="28">
+      <c r="E103" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C104" s="16">
+      <c r="C104" s="15">
         <v>101</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="D104" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="E104" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F104" s="28">
+      <c r="E104" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C105" s="16">
+      <c r="C105" s="15">
         <v>102</v>
       </c>
-      <c r="D105" s="17" t="s">
+      <c r="D105" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E105" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F105" s="28">
+      <c r="E105" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C106" s="16">
+      <c r="C106" s="15">
         <v>103</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="D106" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="E106" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F106" s="28">
+      <c r="E106" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="26" t="s">
+      <c r="A107" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C107" s="16">
+      <c r="C107" s="15">
         <v>104</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D107" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="E107" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F107" s="28">
+      <c r="E107" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" s="27">
         <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C108" s="16">
+      <c r="C108" s="15">
         <v>105</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="D108" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="E108" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F108" s="28">
+      <c r="E108" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="26" t="s">
+      <c r="A109" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C109" s="16">
+      <c r="C109" s="15">
         <v>106</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D109" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E109" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F109" s="28">
+      <c r="E109" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="26" t="s">
+      <c r="A110" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C110" s="16">
+      <c r="C110" s="15">
         <v>107</v>
       </c>
-      <c r="D110" s="17" t="s">
+      <c r="D110" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="E110" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F110" s="28">
+      <c r="E110" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="26" t="s">
+      <c r="A111" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C111" s="16">
+      <c r="C111" s="15">
         <v>108</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="D111" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E111" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F111" s="28">
+      <c r="E111" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="26" t="s">
+      <c r="A112" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C112" s="16">
+      <c r="C112" s="15">
         <v>109</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="D112" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="E112" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F112" s="28">
+      <c r="E112" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="26" t="s">
+      <c r="A113" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C113" s="16">
+      <c r="C113" s="15">
         <v>110</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="D113" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="E113" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F113" s="28">
+      <c r="E113" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="26" t="s">
+      <c r="A114" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C114" s="16">
+      <c r="C114" s="15">
         <v>111</v>
       </c>
-      <c r="D114" s="17" t="s">
+      <c r="D114" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E114" s="17" t="s">
+      <c r="E114" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F114" s="28">
+      <c r="F114" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="26" t="s">
+      <c r="A115" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C115" s="16">
+      <c r="C115" s="15">
         <v>112</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D115" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="E115" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F115" s="28">
+      <c r="E115" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="26" t="s">
+      <c r="A116" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C116" s="16">
+      <c r="C116" s="15">
         <v>113</v>
       </c>
-      <c r="D116" s="17" t="s">
+      <c r="D116" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="E116" s="17" t="s">
+      <c r="E116" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F116" s="28">
+      <c r="F116" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="26" t="s">
+      <c r="A117" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C117" s="16">
+      <c r="C117" s="15">
         <v>114</v>
       </c>
-      <c r="D117" s="17" t="s">
+      <c r="D117" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="E117" s="17" t="s">
+      <c r="E117" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F117" s="28">
+      <c r="F117" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="26" t="s">
+      <c r="A118" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C118" s="16">
+      <c r="C118" s="15">
         <v>115</v>
       </c>
-      <c r="D118" s="17" t="s">
+      <c r="D118" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E118" s="17" t="s">
+      <c r="E118" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F118" s="28">
+      <c r="F118" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="26" t="s">
+      <c r="A119" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C119" s="16">
+      <c r="C119" s="15">
         <v>116</v>
       </c>
-      <c r="D119" s="17" t="s">
+      <c r="D119" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="E119" s="17" t="s">
+      <c r="E119" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="28">
+      <c r="F119" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C120" s="16">
+      <c r="C120" s="15">
         <v>117</v>
       </c>
-      <c r="D120" s="17" t="s">
+      <c r="D120" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="E120" s="17" t="s">
+      <c r="E120" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F120" s="28">
+      <c r="F120" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="26" t="s">
+      <c r="A121" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C121" s="16">
+      <c r="C121" s="15">
         <v>118</v>
       </c>
-      <c r="D121" s="17" t="s">
+      <c r="D121" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="E121" s="17" t="s">
+      <c r="E121" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F121" s="28">
+      <c r="F121" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="26" t="s">
+      <c r="A122" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C122" s="16">
+      <c r="C122" s="15">
         <v>119</v>
       </c>
-      <c r="D122" s="17" t="s">
+      <c r="D122" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="E122" s="17" t="s">
+      <c r="E122" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F122" s="28">
+      <c r="F122" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="26" t="s">
+      <c r="A123" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C123" s="16">
+      <c r="C123" s="15">
         <v>120</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D123" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="E123" s="17" t="s">
+      <c r="E123" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="28">
+      <c r="F123" s="27">
         <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C124" s="16">
+      <c r="C124" s="15">
         <v>121</v>
       </c>
-      <c r="D124" s="17" t="s">
+      <c r="D124" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="E124" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F124" s="28">
+      <c r="E124" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" s="27">
         <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="34" t="s">
+      <c r="A125" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="B125" s="35" t="s">
+      <c r="B125" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="C125" s="36">
+      <c r="C125" s="33">
         <v>122</v>
       </c>
-      <c r="D125" s="37" t="s">
+      <c r="D125" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E125" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F125" s="38">
+      <c r="E125" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="35">
         <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5020,23 +5020,23 @@
   </cols>
   <sheetData>
     <row r="16" spans="1:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5047,7 +5047,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
         <v>250</v>
       </c>
@@ -5078,7 +5078,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -5089,7 +5089,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>250</v>
       </c>
@@ -5098,7 +5098,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="4" t="s">
         <v>255</v>
       </c>
@@ -5107,7 +5107,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4" t="s">
         <v>257</v>
       </c>
@@ -5116,7 +5116,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="4" t="s">
         <v>259</v>
       </c>
@@ -5125,7 +5125,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="4" t="s">
         <v>261</v>
       </c>
@@ -5145,7 +5145,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>103</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -5156,7 +5156,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="4" t="s">
         <v>250</v>
       </c>
@@ -5165,7 +5165,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="4" t="s">
         <v>255</v>
       </c>
@@ -5174,7 +5174,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="4" t="s">
         <v>257</v>
       </c>
@@ -5183,7 +5183,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="4" t="s">
         <v>259</v>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="4" t="s">
         <v>261</v>
       </c>
@@ -5201,7 +5201,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>113</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5212,7 +5212,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="4" t="s">
         <v>250</v>
       </c>
@@ -5221,7 +5221,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>115</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5232,7 +5232,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="7" t="s">
         <v>268</v>
       </c>
@@ -5241,7 +5241,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="7" t="s">
         <v>270</v>
       </c>
@@ -5250,7 +5250,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="7" t="s">
         <v>272</v>
       </c>
@@ -5259,7 +5259,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="7" t="s">
         <v>274</v>
       </c>
@@ -5268,7 +5268,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="7" t="s">
         <v>276</v>
       </c>
@@ -5277,7 +5277,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="7" t="s">
         <v>278</v>
       </c>
@@ -5286,7 +5286,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="7" t="s">
         <v>280</v>
       </c>
@@ -5295,7 +5295,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="7" t="s">
         <v>282</v>
       </c>
@@ -5304,7 +5304,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="7" t="s">
         <v>284</v>
       </c>
@@ -5313,7 +5313,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -5324,7 +5324,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="7" t="s">
         <v>268</v>
       </c>
@@ -5333,7 +5333,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="7" t="s">
         <v>270</v>
       </c>
@@ -5342,7 +5342,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="7" t="s">
         <v>272</v>
       </c>
@@ -5351,7 +5351,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="7" t="s">
         <v>274</v>
       </c>
@@ -5360,7 +5360,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="7" t="s">
         <v>276</v>
       </c>
@@ -5369,7 +5369,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="7" t="s">
         <v>278</v>
       </c>
@@ -5389,7 +5389,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="22" t="s">
         <v>121</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -5400,7 +5400,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="4" t="s">
         <v>250</v>
       </c>
@@ -5409,7 +5409,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="4" t="s">
         <v>255</v>
       </c>
@@ -5418,7 +5418,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="4" t="s">
         <v>257</v>
       </c>
@@ -5427,7 +5427,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="22" t="s">
         <v>125</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -5438,7 +5438,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="4" t="s">
         <v>250</v>
       </c>
@@ -5447,7 +5447,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="4" t="s">
         <v>255</v>
       </c>
@@ -5456,7 +5456,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="22" t="s">
         <v>127</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -5467,7 +5467,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="4" t="s">
         <v>250</v>
       </c>
@@ -5476,7 +5476,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="22" t="s">
         <v>131</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -5487,7 +5487,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="4" t="s">
         <v>250</v>
       </c>
@@ -5507,7 +5507,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="22" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -5518,7 +5518,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="4" t="s">
         <v>250</v>
       </c>
@@ -5527,7 +5527,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="4" t="s">
         <v>255</v>
       </c>
@@ -5536,7 +5536,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="4" t="s">
         <v>257</v>
       </c>
@@ -5545,7 +5545,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="4" t="s">
         <v>259</v>
       </c>
@@ -5554,7 +5554,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="4" t="s">
         <v>261</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="22" t="s">
         <v>161</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -5574,7 +5574,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="4" t="s">
         <v>250</v>
       </c>
@@ -5583,7 +5583,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="4" t="s">
         <v>255</v>
       </c>
@@ -5592,7 +5592,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="4" t="s">
         <v>257</v>
       </c>
@@ -5601,7 +5601,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="4" t="s">
         <v>259</v>
       </c>
@@ -5610,7 +5610,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="4" t="s">
         <v>261</v>
       </c>
@@ -5619,7 +5619,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="4" t="s">
         <v>301</v>
       </c>
@@ -5628,7 +5628,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="4" t="s">
         <v>303</v>
       </c>
@@ -5637,7 +5637,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="23" t="s">
         <v>221</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -5648,7 +5648,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A82" s="24"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="4" t="s">
         <v>307</v>
       </c>
@@ -5657,7 +5657,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="8" t="s">
         <v>309</v>
       </c>
